--- a/DiscreteEvaporator/InputDoc/CondStruc.xlsx
+++ b/DiscreteEvaporator/InputDoc/CondStruc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1820" windowWidth="28720" windowHeight="17620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="16600" yWindow="3380" windowWidth="28720" windowHeight="17620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>air flow rate [m^3/s]</t>
   </si>
   <si>
-    <t>EvapStruc</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>RowNo</t>
   </si>
   <si>
-    <t>Refdownstream</t>
-  </si>
-  <si>
     <t>AirUpstreamUpper</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>tube number (total)</t>
+  </si>
+  <si>
+    <t>CondStruc</t>
+  </si>
+  <si>
+    <t>RefUpstream</t>
   </si>
 </sst>
 </file>
@@ -474,18 +474,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -501,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -517,7 +515,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -599,23 +597,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,11 +664,46 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,16 +722,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -911,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,25 +956,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/DiscreteEvaporator/InputDoc/CondStruc.xlsx
+++ b/DiscreteEvaporator/InputDoc/CondStruc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="3380" windowWidth="28720" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="3380" windowWidth="28720" windowHeight="17620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DiscreteEvaporator/InputDoc/CondStruc.xlsx
+++ b/DiscreteEvaporator/InputDoc/CondStruc.xlsx
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -187,6 +187,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -600,7 +603,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +718,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A12"/>
+      <selection activeCell="A2" sqref="A2:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,40 +750,40 @@
       <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>4</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <v>5</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <v>6</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="7">
         <v>7</v>
       </c>
       <c r="M2" s="4"/>
@@ -789,40 +792,40 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>9</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>11</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>12</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="7">
         <v>13</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="7">
         <v>14</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="7">
         <v>15</v>
       </c>
       <c r="M3" s="4"/>
@@ -831,40 +834,40 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>17</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>18</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>19</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>20</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="7">
         <v>21</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="7">
         <v>22</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="7">
         <v>23</v>
       </c>
       <c r="M4" s="4"/>
@@ -945,7 +948,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DiscreteEvaporator/InputDoc/CondStruc.xlsx
+++ b/DiscreteEvaporator/InputDoc/CondStruc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="3380" windowWidth="28720" windowHeight="17620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="3380" windowWidth="28720" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -491,7 +493,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -499,7 +501,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -507,7 +509,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -515,7 +517,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -531,7 +533,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1.375</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -539,7 +541,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1.603</v>
+        <v>-1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -602,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>-1</v>
@@ -635,9 +637,7 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -657,32 +657,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-1</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -715,15 +703,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L4"/>
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -749,7 +737,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -760,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -786,96 +774,183 @@
       <c r="L2" s="7">
         <v>7</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="M2" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="N2" s="7">
         <v>9</v>
       </c>
-      <c r="G3" s="7">
+      <c r="O2" s="7">
         <v>10</v>
       </c>
-      <c r="H3" s="7">
+      <c r="P2" s="7">
         <v>11</v>
       </c>
-      <c r="I3" s="7">
+      <c r="Q2" s="7">
         <v>12</v>
       </c>
-      <c r="J3" s="7">
+      <c r="R2" s="7">
         <v>13</v>
       </c>
-      <c r="K3" s="7">
+      <c r="S2" s="7">
         <v>14</v>
       </c>
-      <c r="L3" s="7">
+      <c r="T2" s="7">
         <v>15</v>
       </c>
+      <c r="U2" s="7">
+        <v>16</v>
+      </c>
+      <c r="V2" s="7">
+        <v>17</v>
+      </c>
+      <c r="W2" s="7">
+        <v>18</v>
+      </c>
+      <c r="X2" s="7">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>28</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>29</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>30</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>31</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>33</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>36</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>37</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>38</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>40</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>41</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>43</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>44</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>45</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>46</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>47</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>48</v>
+      </c>
+      <c r="BB2" s="7">
+        <v>49</v>
+      </c>
+      <c r="BC2" s="7">
+        <v>50</v>
+      </c>
+      <c r="BD2" s="7">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="7">
+        <v>52</v>
+      </c>
+      <c r="BF2" s="7">
+        <v>53</v>
+      </c>
+      <c r="BG2" s="7"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7">
-        <v>16</v>
-      </c>
-      <c r="F4" s="7">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7">
-        <v>18</v>
-      </c>
-      <c r="H4" s="7">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20</v>
-      </c>
-      <c r="J4" s="7">
-        <v>21</v>
-      </c>
-      <c r="K4" s="7">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7">
-        <v>23</v>
-      </c>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -893,7 +968,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -911,7 +986,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -929,13 +1004,13 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -948,7 +1023,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>-1</v>
@@ -994,7 +1069,7 @@
         <v>-1</v>
       </c>
       <c r="E2" s="6">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1008,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1031,16 +1106,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>-1</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
@@ -1054,16 +1129,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="6">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
@@ -1077,16 +1152,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1100,16 +1175,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="6">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -1123,16 +1198,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>5</v>
       </c>
       <c r="D8" s="6">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
@@ -1146,16 +1221,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4">
         <v>6</v>
       </c>
       <c r="D9" s="6">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="E9" s="6">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -1169,16 +1244,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="E10" s="6">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
@@ -1192,16 +1267,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
       </c>
       <c r="D11" s="6">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="E11" s="6">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
@@ -1215,16 +1290,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4">
         <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
@@ -1238,16 +1313,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
       </c>
       <c r="D13" s="6">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="F13" s="6">
         <v>1</v>
@@ -1261,16 +1336,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4">
         <v>11</v>
       </c>
       <c r="D14" s="6">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -1284,16 +1359,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4">
         <v>12</v>
       </c>
       <c r="D15" s="6">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -1307,16 +1382,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>13</v>
       </c>
       <c r="D16" s="6">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -1330,16 +1405,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4">
         <v>14</v>
       </c>
       <c r="D17" s="6">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1353,16 +1428,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D18" s="6">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1376,16 +1451,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4">
         <v>16</v>
       </c>
       <c r="D19" s="6">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
@@ -1399,13 +1474,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <v>17</v>
       </c>
       <c r="D20" s="6">
-        <v>-1</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6">
         <v>-1</v>
@@ -1422,16 +1497,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="4">
         <v>18</v>
       </c>
       <c r="D21" s="6">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6">
-        <v>-1</v>
+        <v>53</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -1445,16 +1520,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
       </c>
       <c r="D22" s="6">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -1468,16 +1543,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <v>20</v>
       </c>
       <c r="D23" s="6">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6">
-        <v>-1</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -1491,16 +1566,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>21</v>
       </c>
       <c r="D24" s="6">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
@@ -1514,16 +1589,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="4">
         <v>22</v>
       </c>
       <c r="D25" s="6">
-        <v>-1</v>
+        <v>48</v>
       </c>
       <c r="E25" s="6">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="F25" s="6">
         <v>1</v>
@@ -1533,274 +1608,694 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6">
+        <v>48</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>24</v>
+      </c>
+      <c r="D27" s="6">
+        <v>46</v>
+      </c>
+      <c r="E27" s="6">
+        <v>47</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45</v>
+      </c>
+      <c r="E28" s="6">
+        <v>46</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6">
+        <v>45</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6">
+        <v>43</v>
+      </c>
+      <c r="E30" s="6">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6">
+        <v>42</v>
+      </c>
+      <c r="E31" s="6">
+        <v>43</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>29</v>
+      </c>
+      <c r="D32" s="6">
+        <v>41</v>
+      </c>
+      <c r="E32" s="6">
+        <v>42</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>30</v>
+      </c>
+      <c r="D33" s="6">
+        <v>40</v>
+      </c>
+      <c r="E33" s="6">
+        <v>41</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6">
+        <v>39</v>
+      </c>
+      <c r="E34" s="6">
+        <v>40</v>
+      </c>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4">
+        <v>32</v>
+      </c>
+      <c r="D35" s="6">
+        <v>38</v>
+      </c>
+      <c r="E35" s="6">
+        <v>39</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>33</v>
+      </c>
+      <c r="D36" s="6">
+        <v>37</v>
+      </c>
+      <c r="E36" s="6">
+        <v>38</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
+        <v>34</v>
+      </c>
+      <c r="D37" s="4">
+        <v>36</v>
+      </c>
+      <c r="E37" s="4">
+        <v>37</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>35</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>36</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>37</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>38</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>41</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>42</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="4"/>
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>45</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4">
+        <v>46</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="4"/>
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>47</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="4"/>
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="4"/>
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>49</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="4"/>
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4">
+        <v>50</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="4"/>
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>51</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="4"/>
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>52</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>

--- a/DiscreteEvaporator/InputDoc/CondStruc.xlsx
+++ b/DiscreteEvaporator/InputDoc/CondStruc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -478,7 +478,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
